--- a/bots/crawl_ch/output/vegi_coop_2022-12-07.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-12-07.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3352,7 +3352,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4310,7 +4310,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4444,7 +4444,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5922,7 +5922,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6176,7 +6176,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6310,7 +6310,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6440,7 +6440,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7045,7 +7045,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7094,7 +7094,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7163,7 +7163,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7232,7 +7232,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7427,7 +7427,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8044,7 +8044,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8107,7 +8107,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8176,7 +8176,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8245,7 +8245,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8318,7 +8318,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8387,7 +8387,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8452,7 +8452,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8590,7 +8590,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8728,7 +8728,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8797,7 +8797,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8866,7 +8866,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -8935,7 +8935,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9073,7 +9073,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9146,7 +9146,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9215,7 +9215,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9418,7 +9418,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9483,7 +9483,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9552,7 +9552,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9621,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9694,7 +9694,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9832,7 +9832,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -9970,7 +9970,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10039,7 +10039,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10106,7 +10106,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10175,7 +10175,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10240,7 +10240,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10378,7 +10378,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10443,7 +10443,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10512,7 +10512,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10581,7 +10581,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10650,7 +10650,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10719,7 +10719,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10784,7 +10784,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10853,7 +10853,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10918,7 +10918,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11050,7 +11050,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11119,7 +11119,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11192,7 +11192,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11387,7 +11387,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11600,7 +11600,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11669,7 +11669,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11811,7 +11811,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11880,7 +11880,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -11949,7 +11949,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12018,7 +12018,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12087,7 +12087,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12152,7 +12152,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12290,7 +12290,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12432,7 +12432,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12574,7 +12574,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12639,7 +12639,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12708,7 +12708,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12777,7 +12777,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12840,7 +12840,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12913,7 +12913,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13051,7 +13051,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13124,7 +13124,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13193,7 +13193,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13258,7 +13258,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13331,7 +13331,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13400,7 +13400,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13467,7 +13467,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13532,7 +13532,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13601,7 +13601,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13812,7 +13812,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13881,7 +13881,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14023,7 +14023,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14092,7 +14092,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14157,7 +14157,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14226,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14295,7 +14295,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14348,7 +14348,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14417,7 +14417,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14482,7 +14482,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14594,7 +14594,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14663,7 +14663,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14736,7 +14736,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14805,7 +14805,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14878,7 +14878,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -14951,7 +14951,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15020,7 +15020,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15227,7 +15227,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15292,7 +15292,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15365,7 +15365,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15434,7 +15434,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15503,7 +15503,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15645,7 +15645,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15714,7 +15714,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15783,7 +15783,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15856,7 +15856,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15921,7 +15921,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -15986,7 +15986,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16051,7 +16051,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16116,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16181,7 +16181,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16250,7 +16250,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16315,7 +16315,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16384,7 +16384,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16453,7 +16453,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16522,7 +16522,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16668,7 +16668,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16741,7 +16741,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16810,7 +16810,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16883,7 +16883,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -16956,7 +16956,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17025,7 +17025,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17094,7 +17094,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17167,7 +17167,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17236,7 +17236,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17309,7 +17309,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17382,7 +17382,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17451,7 +17451,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17520,7 +17520,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17658,7 +17658,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17731,7 +17731,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17804,7 +17804,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17873,7 +17873,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -17946,7 +17946,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18019,7 +18019,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18088,7 +18088,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18153,7 +18153,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18218,7 +18218,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18291,7 +18291,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18360,7 +18360,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18429,7 +18429,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18498,7 +18498,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18563,7 +18563,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18628,7 +18628,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18770,7 +18770,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18908,7 +18908,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -19032,7 +19032,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -19101,7 +19101,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -19174,7 +19174,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -19247,7 +19247,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -19316,7 +19316,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -19385,7 +19385,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -19452,45 +19452,45 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>4854250</t>
+          <t>6494628</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Betty Bossi Marktgemüse</t>
+          <t>Garden Gourmet Vegetarian Balls</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-marktgemuese/p/4854250</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-vegetarian-balls/p/6494628</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E280" t="n">
         <v>4.5</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>2.48/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -19500,7 +19500,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -19510,60 +19510,60 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Betty Bossi Marktgemüse 3.95 Schweizer Franken</t>
+          <t>Garden Gourmet Vegetarian Balls 20% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>6494628</t>
+          <t>4854250</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Garden Gourmet Vegetarian Balls</t>
+          <t>Betty Bossi Marktgemüse</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-vegetarian-balls/p/6494628</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-marktgemuese/p/4854250</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E281" t="n">
         <v>4.5</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2.48/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -19573,7 +19573,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -19583,22 +19583,22 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Garden Gourmet Vegetarian Balls 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Marktgemüse 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -19671,7 +19671,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -19740,7 +19740,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -19813,7 +19813,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -19880,7 +19880,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -19949,7 +19949,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20018,7 +20018,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20091,7 +20091,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20154,7 +20154,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20227,7 +20227,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20292,7 +20292,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20361,7 +20361,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20430,7 +20430,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20499,7 +20499,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20562,13 +20562,13 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Prix Garantie Clementinen 3.95 Schweizer Franken</t>
+          <t>Prix Garantie Clementinen - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20641,7 +20641,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20706,7 +20706,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20771,7 +20771,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20840,7 +20840,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20913,7 +20913,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -20978,7 +20978,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21051,7 +21051,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21124,7 +21124,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21193,7 +21193,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21335,7 +21335,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21408,7 +21408,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21477,7 +21477,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21550,7 +21550,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21619,7 +21619,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21692,7 +21692,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21761,7 +21761,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21830,7 +21830,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21895,7 +21895,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -21964,7 +21964,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22037,7 +22037,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22110,7 +22110,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22179,7 +22179,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22244,7 +22244,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22313,7 +22313,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22386,7 +22386,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22459,7 +22459,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22522,7 +22522,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22587,7 +22587,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22660,7 +22660,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22729,7 +22729,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22802,7 +22802,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22875,7 +22875,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -22948,7 +22948,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23021,7 +23021,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23094,7 +23094,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23159,7 +23159,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23224,7 +23224,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23370,7 +23370,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23439,7 +23439,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23512,7 +23512,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23585,7 +23585,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23650,7 +23650,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23723,7 +23723,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23796,7 +23796,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23865,7 +23865,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -23938,7 +23938,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24003,7 +24003,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24066,7 +24066,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24139,7 +24139,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24204,7 +24204,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24273,7 +24273,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24342,7 +24342,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24411,7 +24411,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24480,7 +24480,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24553,7 +24553,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24626,7 +24626,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24695,7 +24695,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24768,7 +24768,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24839,7 +24839,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24908,7 +24908,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -24977,7 +24977,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25050,7 +25050,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25119,7 +25119,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25192,7 +25192,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25265,7 +25265,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25334,7 +25334,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25407,7 +25407,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25480,7 +25480,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25553,7 +25553,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25626,7 +25626,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25699,7 +25699,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25772,7 +25772,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25845,7 +25845,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25918,7 +25918,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -25991,7 +25991,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26060,7 +26060,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26133,7 +26133,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26202,7 +26202,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26348,7 +26348,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26413,7 +26413,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26478,7 +26478,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26551,7 +26551,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26620,7 +26620,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26693,7 +26693,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26766,7 +26766,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26839,7 +26839,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26912,7 +26912,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -26985,7 +26985,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27054,7 +27054,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27127,7 +27127,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27190,7 +27190,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27263,7 +27263,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27336,7 +27336,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27401,7 +27401,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27474,7 +27474,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27547,7 +27547,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27620,7 +27620,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27689,7 +27689,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27754,7 +27754,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27827,7 +27827,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27900,7 +27900,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -27973,7 +27973,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28046,7 +28046,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28119,7 +28119,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28192,7 +28192,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28265,7 +28265,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28338,7 +28338,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28407,7 +28407,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28480,7 +28480,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28553,7 +28553,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28626,7 +28626,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28699,7 +28699,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28768,7 +28768,7 @@
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28841,7 +28841,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28910,7 +28910,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -28977,7 +28977,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29042,7 +29042,7 @@
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29105,7 +29105,7 @@
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29170,7 +29170,7 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29243,7 +29243,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29296,7 +29296,7 @@
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29365,7 +29365,7 @@
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29434,7 +29434,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29507,7 +29507,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29578,7 +29578,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29647,7 +29647,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29710,7 +29710,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29783,7 +29783,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29848,7 +29848,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29913,7 +29913,7 @@
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -29984,7 +29984,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30053,7 +30053,7 @@
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30126,7 +30126,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30199,7 +30199,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30270,7 +30270,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30343,7 +30343,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30414,7 +30414,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30487,7 +30487,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30560,7 +30560,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30629,7 +30629,7 @@
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30702,7 +30702,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30771,7 +30771,7 @@
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30820,7 +30820,7 @@
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30889,7 +30889,7 @@
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -30962,7 +30962,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31035,7 +31035,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31108,7 +31108,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31181,7 +31181,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31254,7 +31254,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31317,7 +31317,7 @@
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31390,7 +31390,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31463,7 +31463,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31536,7 +31536,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31609,7 +31609,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31682,7 +31682,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31755,7 +31755,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31824,7 +31824,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31893,7 +31893,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -31962,7 +31962,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32029,7 +32029,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32098,7 +32098,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32171,7 +32171,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32238,7 +32238,7 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32311,7 +32311,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32380,7 +32380,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32453,7 +32453,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32518,7 +32518,7 @@
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32583,7 +32583,7 @@
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32656,7 +32656,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32725,7 +32725,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32778,7 +32778,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32851,7 +32851,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32924,7 +32924,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -32997,7 +32997,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -33066,7 +33066,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -33131,7 +33131,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -33196,7 +33196,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -33269,7 +33269,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -33336,7 +33336,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -33409,7 +33409,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -33478,7 +33478,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -33547,7 +33547,7 @@
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -33620,7 +33620,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -33689,7 +33689,7 @@
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -33762,45 +33762,45 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>7037874</t>
+          <t>7040897</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Like Meat Bio like Chicken Filet</t>
+          <t>Greenforce Bio vegan Köttbullar</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/like-meat-bio-like-chicken-filet/p/7037874</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/greenforce-bio-vegan-koettbullar/p/7040897</t>
         </is>
       </c>
       <c r="D484" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E484" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>LIKE MEAT</t>
+          <t>GREENFORCE</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>5.00/100g</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -33810,7 +33810,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -33825,55 +33825,55 @@
       </c>
       <c r="M484" t="inlineStr">
         <is>
-          <t>Like Meat Bio like Chicken Filet 5.95 Schweizer Franken</t>
+          <t>Greenforce Bio vegan Köttbullar 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>7040894</t>
+          <t>7037874</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Greenforce Bio vegan Cevapcici</t>
+          <t>Like Meat Bio like Chicken Filet</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/greenforce-bio-vegan-cevapcici/p/7040894</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/like-meat-bio-like-chicken-filet/p/7037874</t>
         </is>
       </c>
       <c r="D485" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E485" t="n">
         <v>4</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>GREENFORCE</t>
+          <t>LIKE MEAT</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>5.00/100g</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -33883,7 +33883,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -33898,41 +33898,41 @@
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>Greenforce Bio vegan Cevapcici 3.75 Schweizer Franken</t>
+          <t>Like Meat Bio like Chicken Filet 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>7040897</t>
+          <t>7040894</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Greenforce Bio vegan Köttbullar</t>
+          <t>Greenforce Bio vegan Cevapcici</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/greenforce-bio-vegan-koettbullar/p/7040897</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/greenforce-bio-vegan-cevapcici/p/7040894</t>
         </is>
       </c>
       <c r="D486" t="n">
         <v>2</v>
       </c>
       <c r="E486" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>Greenforce Bio vegan Köttbullar 3.75 Schweizer Franken</t>
+          <t>Greenforce Bio vegan Cevapcici 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N486" t="inlineStr">
@@ -33981,7 +33981,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34054,7 +34054,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34101,7 +34101,7 @@
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34166,7 +34166,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34239,7 +34239,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34312,7 +34312,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34381,7 +34381,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34450,7 +34450,7 @@
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34503,7 +34503,7 @@
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34568,7 +34568,7 @@
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34641,7 +34641,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34714,7 +34714,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34787,7 +34787,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34860,7 +34860,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -34931,7 +34931,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35004,7 +35004,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35077,7 +35077,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35148,7 +35148,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35215,7 +35215,7 @@
       <c r="N504" t="inlineStr"/>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35282,7 +35282,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35339,7 +35339,7 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35408,7 +35408,7 @@
       <c r="N507" t="inlineStr"/>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35481,7 +35481,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35554,7 +35554,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35627,7 +35627,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35765,7 +35765,7 @@
       <c r="N512" t="inlineStr"/>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35834,7 +35834,7 @@
       <c r="N513" t="inlineStr"/>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35905,7 +35905,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -35978,7 +35978,7 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36051,7 +36051,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36124,7 +36124,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36197,7 +36197,7 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36266,7 +36266,7 @@
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36339,7 +36339,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36412,7 +36412,7 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36485,7 +36485,7 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36556,7 +36556,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36627,7 +36627,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36700,7 +36700,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36773,7 +36773,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36846,7 +36846,7 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36919,7 +36919,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -36986,7 +36986,7 @@
       <c r="N529" t="inlineStr"/>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37055,7 +37055,7 @@
       <c r="N530" t="inlineStr"/>
       <c r="O530" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37124,7 +37124,7 @@
       <c r="N531" t="inlineStr"/>
       <c r="O531" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37191,7 +37191,7 @@
       <c r="N532" t="inlineStr"/>
       <c r="O532" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37258,7 +37258,7 @@
       <c r="N533" t="inlineStr"/>
       <c r="O533" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37331,7 +37331,7 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37404,7 +37404,7 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37548,7 +37548,7 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37621,7 +37621,7 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37686,7 +37686,7 @@
       <c r="N539" t="inlineStr"/>
       <c r="O539" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37759,7 +37759,7 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37832,7 +37832,7 @@
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37901,7 +37901,7 @@
       <c r="N542" t="inlineStr"/>
       <c r="O542" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -37968,7 +37968,7 @@
       <c r="N543" t="inlineStr"/>
       <c r="O543" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38035,7 +38035,7 @@
       <c r="N544" t="inlineStr"/>
       <c r="O544" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38104,7 +38104,7 @@
       <c r="N545" t="inlineStr"/>
       <c r="O545" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38177,7 +38177,7 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38248,7 +38248,7 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38321,7 +38321,7 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38386,7 +38386,7 @@
       <c r="N549" t="inlineStr"/>
       <c r="O549" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38455,7 +38455,7 @@
       <c r="N550" t="inlineStr"/>
       <c r="O550" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38520,7 +38520,7 @@
       <c r="N551" t="inlineStr"/>
       <c r="O551" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38589,7 +38589,7 @@
       <c r="N552" t="inlineStr"/>
       <c r="O552" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38654,7 +38654,7 @@
       <c r="N553" t="inlineStr"/>
       <c r="O553" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38723,7 +38723,7 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38774,7 +38774,7 @@
       <c r="N555" t="inlineStr"/>
       <c r="O555" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38843,7 +38843,7 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38906,7 +38906,7 @@
       <c r="N557" t="inlineStr"/>
       <c r="O557" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -38979,7 +38979,7 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -39050,7 +39050,7 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -39113,7 +39113,7 @@
       <c r="N560" t="inlineStr"/>
       <c r="O560" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -39178,7 +39178,7 @@
       <c r="N561" t="inlineStr"/>
       <c r="O561" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -39247,7 +39247,7 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -39312,7 +39312,7 @@
       <c r="N563" t="inlineStr"/>
       <c r="O563" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -39381,7 +39381,7 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -39448,7 +39448,7 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -39517,7 +39517,7 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
@@ -39588,7 +39588,7 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>2022-12-07 13:25:26</t>
+          <t>2022-12-07 13:37:45</t>
         </is>
       </c>
     </row>
